--- a/Dataset/Folds/Fold_5/Excel/27.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/27.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="441">
   <si>
     <t>Doi</t>
   </si>
@@ -1336,6 +1336,147 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                          Jing%Wang%NULL%1,                          Wenbin%Li%NULL%1,                          Zhaoxian%Zhou%NULL%1,                          Siying%Liu%NULL%1,                          Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                           Yuan%Zhang%NULL%1,                           Lei%Huang%NULL%0,                           Bi-heng%Cheng%NULL%1,                           Zhong-yuan%Xia%NULL%1,                           Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                           L.%Jun%NULL%1,                           NULL%Nawsherwan%NULL%1,                           R.%Siddique%NULL%1,                           Y.%Li%NULL%1,                           G.%Han%hg7913@hotmail.com%1,                           M.%Xue%xuemengzhou@zzu.edu.cn%1,                           G.%Nabi%ghulamnabiqau@gmail.com%1,                           J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                           Ruihong%Sun%NULL%1,                           Jianpu%Chen%NULL%1,                           Yuanliang%Xie%NULL%1,                           Shutong%Zhang%NULL%1,                           Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                           Qin%Li%NULL%1,                           Danni%Zheng%NULL%1,                           Hai%Jiang%NULL%1,                           Yuan%Wei%NULL%0,                           Li%Zou%NULL%2,                           Li%Zou%NULL%0,                           Ling%Feng%NULL%3,                           Ling%Feng%NULL%0,                           Guoping%Xiong%NULL%3,                           Guoping%Xiong%NULL%0,                           Guoqiang%Sun%NULL%4,                           Guoqiang%Sun%NULL%0,                           Haibo%Wang%NULL%2,                           Haibo%Wang%NULL%0,                           Yangyu%Zhao%NULL%2,                           Yangyu%Zhao%NULL%0,                           Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                           Juanjuan%Guo%NULL%0,                           Cuifang%Fan%NULL%1,                           Juan%Juan%NULL%1,                           Xuechen%Yu%NULL%0,                           Jiafu%Li%NULL%0,                           Ling%Feng%NULL%0,                           Chunyan%Li%NULL%1,                           Huijun%Chen%NULL%1,                           Yuan%Qiao%NULL%1,                           Di%Lei%NULL%1,                           Chen%Wang%NULL%0,                           Guoping%Xiong%NULL%0,                           Fengyi%Xiao%NULL%1,                           Wencong%He%NULL%1,                           Qiumei%Pang%NULL%1,                           Xiaoling%Hu%NULL%1,                           Suqing%Wang%NULL%1,                           Dunjin%Chen%NULL%1,                           Yuanzhen%Zhang%NULL%0,                           Liona C.%Poon%NULL%1,                           Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                           Lefei%Han%NULL%1,                           Min%Peng%2658706528@qq.com%2,                           Yuxia%Lv%NULL%1,                           Yin%Ouyang%NULL%1,                           Kui%Liu%NULL%0,                           Linli%Yue%NULL%1,                           Qiannan%Li%NULL%1,                           Guoqiang%Sun%NULL%0,                           Lin%Chen%NULL%1,                           Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                           Luigi%Frigerio%NULL%1,                           Irene%Cetin%NULL%1,                           Patrizia%Vergani%NULL%1,                           Arsenio%Spinillo%NULL%1,                           Federico%Prefumo%NULL%1,                           Edda%Pellegrini%NULL%1,                           Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                           Caitlin%Baptiste%NULL%1,                           Cynthia%Gyamfi-Bannerman%NULL%1,                           Russell%Miller%NULL%1,                           Rebecca%Martinez%NULL%1,                           Kyra%Bernstein%NULL%1,                           Laurence%Ring%NULL%1,                           Ruth%Landau%NULL%1,                           Stephanie%Purisch%NULL%1,                           Alexander M.%Friedman%NULL%1,                           Karin%Fuchs%NULL%2,                           Desmond%Sutton%NULL%1,                           Maria%Andrikopoulou%NULL%1,                           Devon%Rupley%NULL%1,                           Jean-Ju%Sheen%NULL%1,                           Janice%Aubey%NULL%1,                           Noelia%Zork%NULL%1,                           Leslie%Moroz%NULL%1,                           Mirella%Mourad%NULL%1,                           Ronald%Wapner%NULL%1,                           Lynn L.%Simpson%NULL%1,                           Mary E.%D’Alton%NULL%1,                           Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                           Karin%Fuchs%NULL%0,                           Mary%D’Alton%NULL%1,                           Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                           Jing%Wang%NULL%1,                           Wenbin%Li%NULL%1,                           Zhaoxian%Zhou%NULL%1,                           Siying%Liu%NULL%1,                           Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%2,                            Yuan%Zhang%NULL%1,                            Lei%Huang%NULL%0,                            Bi-heng%Cheng%NULL%1,                            Zhong-yuan%Xia%NULL%1,                            Qing-tao%Meng%mengqingtao2018@126.com%1]</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%1,                            L.%Jun%NULL%1,                            NULL%Nawsherwan%NULL%1,                            R.%Siddique%NULL%1,                            Y.%Li%NULL%1,                            G.%Han%hg7913@hotmail.com%1,                            M.%Xue%xuemengzhou@zzu.edu.cn%1,                            G.%Nabi%ghulamnabiqau@gmail.com%1,                            J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%1,                            Ruihong%Sun%NULL%1,                            Jianpu%Chen%NULL%1,                            Yuanliang%Xie%NULL%1,                            Shutong%Zhang%NULL%1,                            Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%1,                            Qin%Li%NULL%1,                            Danni%Zheng%NULL%1,                            Hai%Jiang%NULL%1,                            Yuan%Wei%NULL%0,                            Li%Zou%NULL%2,                            Li%Zou%NULL%0,                            Ling%Feng%NULL%3,                            Ling%Feng%NULL%0,                            Guoping%Xiong%NULL%3,                            Guoping%Xiong%NULL%0,                            Guoqiang%Sun%NULL%4,                            Guoqiang%Sun%NULL%0,                            Haibo%Wang%NULL%2,                            Haibo%Wang%NULL%0,                            Yangyu%Zhao%NULL%2,                            Yangyu%Zhao%NULL%0,                            Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%2,                            Juanjuan%Guo%NULL%0,                            Cuifang%Fan%NULL%1,                            Juan%Juan%NULL%1,                            Xuechen%Yu%NULL%0,                            Jiafu%Li%NULL%0,                            Ling%Feng%NULL%0,                            Chunyan%Li%NULL%1,                            Huijun%Chen%NULL%1,                            Yuan%Qiao%NULL%1,                            Di%Lei%NULL%1,                            Chen%Wang%NULL%0,                            Guoping%Xiong%NULL%0,                            Fengyi%Xiao%NULL%1,                            Wencong%He%NULL%1,                            Qiumei%Pang%NULL%1,                            Xiaoling%Hu%NULL%1,                            Suqing%Wang%NULL%1,                            Dunjin%Chen%NULL%1,                            Yuanzhen%Zhang%NULL%0,                            Liona C.%Poon%NULL%1,                            Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%4,                            Lefei%Han%NULL%1,                            Min%Peng%2658706528@qq.com%2,                            Yuxia%Lv%NULL%1,                            Yin%Ouyang%NULL%1,                            Kui%Liu%NULL%0,                            Linli%Yue%NULL%1,                            Qiannan%Li%NULL%1,                            Guoqiang%Sun%NULL%0,                            Lin%Chen%NULL%1,                            Lin%Yang%l.yang@polyu.edu.hk%2]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%2,                            Luigi%Frigerio%NULL%1,                            Irene%Cetin%NULL%1,                            Patrizia%Vergani%NULL%1,                            Arsenio%Spinillo%NULL%1,                            Federico%Prefumo%NULL%1,                            Edda%Pellegrini%NULL%1,                            Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%3,                            Caitlin%Baptiste%NULL%1,                            Cynthia%Gyamfi-Bannerman%NULL%1,                            Russell%Miller%NULL%1,                            Rebecca%Martinez%NULL%1,                            Kyra%Bernstein%NULL%1,                            Laurence%Ring%NULL%1,                            Ruth%Landau%NULL%1,                            Stephanie%Purisch%NULL%1,                            Alexander M.%Friedman%NULL%1,                            Karin%Fuchs%NULL%2,                            Desmond%Sutton%NULL%1,                            Maria%Andrikopoulou%NULL%1,                            Devon%Rupley%NULL%1,                            Jean-Ju%Sheen%NULL%1,                            Janice%Aubey%NULL%1,                            Noelia%Zork%NULL%1,                            Leslie%Moroz%NULL%1,                            Mirella%Mourad%NULL%1,                            Ronald%Wapner%NULL%1,                            Lynn L.%Simpson%NULL%1,                            Mary E.%D’Alton%NULL%1,                            Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Desmond%Sutton%NULL%1,                            Karin%Fuchs%NULL%0,                            Mary%D’Alton%NULL%1,                            Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                            Jing%Wang%NULL%1,                            Wenbin%Li%NULL%1,                            Zhaoxian%Zhou%NULL%1,                            Siying%Liu%NULL%1,                            Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Chen%NULL%0, Yuan%Zhang%NULL%2, Lei%Huang%NULL%0, Bi-heng%Cheng%NULL%2, Zhong-yuan%Xia%NULL%2, Qing-tao%Meng%mengqingtao2018@126.com%2]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[S.%Khan%Suliman.khan18@mails.ucas.ac.cn%0, L.%Jun%NULL%1, NULL%Nawsherwan%NULL%2, R.%Siddique%NULL%1, Y.%Li%NULL%1, G.%Han%hg7913@hotmail.com%1, M.%Xue%xuemengzhou@zzu.edu.cn%1, G.%Nabi%ghulamnabiqau@gmail.com%1, J.%Liu%jbliuzz@163.com%1]</t>
+  </si>
+  <si>
+    <t>European Society of Clinical Microbiology and Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Xiaoqing%Wu%NULL%0, Ruihong%Sun%NULL%1, Jianpu%Chen%NULL%1, Yuanliang%Xie%NULL%1, Shutong%Zhang%NULL%1, Xiang%Wang%wangxiang_897@126.com%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Lian%Chen%NULL%0, Qin%Li%NULL%0, Danni%Zheng%NULL%1, Hai%Jiang%NULL%1, Yuan%Wei%NULL%0, Li%Zou%NULL%2, Li%Zou%NULL%0, Ling%Feng%NULL%5, Ling%Feng%NULL%0, Guoping%Xiong%NULL%4, Guoping%Xiong%NULL%0, Guoqiang%Sun%NULL%8, Guoqiang%Sun%NULL%0, Haibo%Wang%NULL%3, Haibo%Wang%NULL%0, Yangyu%Zhao%NULL%2, Yangyu%Zhao%NULL%0, Jie%Qiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0, Juanjuan%Guo%NULL%0, Cuifang%Fan%NULL%2, Juan%Juan%NULL%2, Xuechen%Yu%NULL%0, Jiafu%Li%NULL%0, Ling%Feng%NULL%0, Chunyan%Li%NULL%2, Huijun%Chen%NULL%0, Yuan%Qiao%NULL%2, Di%Lei%NULL%2, Chen%Wang%NULL%0, Guoping%Xiong%NULL%0, Fengyi%Xiao%NULL%2, Wencong%He%NULL%2, Qiumei%Pang%NULL%6, Xiaoling%Hu%NULL%2, Suqing%Wang%NULL%2, Dunjin%Chen%NULL%2, Yuanzhen%Zhang%NULL%0, Liona C.%Poon%NULL%2, Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0, Lefei%Han%NULL%4, Min%Peng%2658706528@qq.com%5, Yuxia%Lv%NULL%4, Yin%Ouyang%NULL%4, Kui%Liu%NULL%0, Linli%Yue%NULL%4, Qiannan%Li%NULL%4, Guoqiang%Sun%NULL%0, Lin%Chen%NULL%0, Lin%Yang%l.yang@polyu.edu.hk%7]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From February 24, 2020, a COVID‐19 obstetric task force was structured to deliver management recommendations for obstetric care.
+ From March 1, 2020, six COVID‐19 hubs and their spokes were designated.
+ An interim analysis of cases occurring in or transferred to these hubs was performed on March 20, 2020 and recommendations were released on March 24, 2020. The vision of this strict organization was to centralize patients in high‐risk maternity centers in order to concentrate human resources and personal protective equipment (PPE), dedicate protected areas of these major hospitals, and centralize clinical multidisciplinary experience with this disease.
+ All maternity hospitals were informed to provide a protected labor and delivery room for nontransferable patients in advanced labor.
+ A pre‐triage based on temperature and 14 other items was developed in order to screen suspected patients in all hospitals to be tested with nasopharyngeal swabs.
+ Obstetric outpatient facilities were instructed to maintain scheduled pregnancy screening as per Italian guidelines, and to provide pre‐triage screening and surgical masks for personnel and patients for pre‐triage‐negative patients.
+ Forty‐two cases were recorded in the first 20 days of hub and spoke organization.
+ The clinical presentation was interstitial pneumonia in 20 women.
+ Of these, seven required respiratory support and eventually recovered.
+ Two premature labors occurred.
+</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0, Luigi%Frigerio%NULL%2, Irene%Cetin%NULL%2, Patrizia%Vergani%NULL%2, Arsenio%Spinillo%NULL%2, Federico%Prefumo%NULL%2, Edda%Pellegrini%NULL%2, Gianluigi%Gargantini%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus disease 2019 is rapidly spreading throughout the New York metropolitan area since its first reported case on March 1, 2020. The state is now the epicenter of coronavirus disease 2019 outbreak in the United States, with 84,735 cases reported as of April 2, 2020. We previously presented an early case series with 7 coronavirus disease 2019–positive pregnant patients, 2 of whom were diagnosed with coronavirus disease 2019 after an initial asymptomatic presentation.
+ We now describe a series of 43 test-positive cases of coronavirus disease 2019 presenting to an affiliated pair of New York City hospitals for more than 2 weeks, from March 13, 2020, to March 27, 2020. A total of 14 patients (32.6%) presented without any coronavirus disease 2019–associated viral symptoms and were identified after they developed symptoms during admission or after the implementation of universal testing for all obstetric admissions on March 22. Among them, 10 patients (71.4%) developed symptoms of coronavirus disease 2019 over the course of their delivery admission or early after postpartum discharge.
+ Of the other 29 patients (67.4%) who presented with symptomatic coronavirus disease 2019, 3 women ultimately required antenatal admission for viral symptoms, and another patient re-presented with worsening respiratory status requiring oxygen supplementation 6 days postpartum after a successful labor induction.
+ There were no confirmed cases of coronavirus disease 2019 detected in neonates upon initial testing on the first day of life.
+ Based on coronavirus disease 2019 disease severity characteristics by Wu and McGoogan, 37 women (86%) exhibited mild disease, 4 (9.3%) severe disease, and 2 (4.7%) critical disease; these percentages are similar to those described in nonpregnant adults with coronavirus disease 2019 (about 80% mild, 15% severe, and 5% critical disease).
+</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%NULL%0, Caitlin%Baptiste%NULL%3, Cynthia%Gyamfi-Bannerman%NULL%3, Russell%Miller%NULL%3, Rebecca%Martinez%NULL%3, Kyra%Bernstein%NULL%3, Laurence%Ring%NULL%3, Ruth%Landau%NULL%3, Stephanie%Purisch%NULL%3, Alexander M.%Friedman%NULL%3, Karin%Fuchs%NULL%4, Desmond%Sutton%NULL%0, Maria%Andrikopoulou%NULL%3, Devon%Rupley%NULL%3, Jean-Ju%Sheen%NULL%3, Janice%Aubey%NULL%3, Noelia%Zork%NULL%3, Leslie%Moroz%NULL%3, Mirella%Mourad%NULL%3, Ronald%Wapner%NULL%3, Lynn L.%Simpson%NULL%3, Mary E.%D’Alton%NULL%3, Dena%Goffman%NULL%4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to investigate the clinical characteristics of neonates born to SARS-CoV-2 infected mothers and increase the current knowledge on the perinatal consequences of COVID-19. Nineteen neonates were admitted to Tongji Hospital from January 31 to February 29, 2020. Their mothers were clinically diagnosed or laboratory-confirmed with COVID-19. We prospectively collected and analyzed data of mothers and infants.
+ There are 19 neonates included in the research.
+ Among them, 10 mothers were confirmed COVID-19 by positive SARS-CoV-2 RT-PCR in throat swab, and 9 mothers were clinically diagnosed with COVID-19. Delivery occurred in an isolation room and neonates were immediately separated from the mothers and isolated for at least 14 days.
+ No fetal distress was found.
+ Gestational age of the neonates was 38.6 ± 1.5 weeks, and average birth weight was 3293 ± 425 g.
+ SARS-CoV-2 RT-PCR in throat swab, urine, and feces of all neonates were negative.
+ SARS-CoV-2 RT-PCR in breast milk and amniotic fluid was negative too.
+ None of the neonates developed clinical, radiologic, hematologic, or biochemical evidence of COVID-19. No vertical transmission of SARS-CoV-2 and no perinatal complications in the third trimester were found in our study.
+ The delivery should occur in isolation and neonates should be separated from the infected mothers and care givers.
+</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Jing%Wang%NULL%0, Wenbin%Li%NULL%3, Zhaoxian%Zhou%NULL%3, Siying%Liu%NULL%3, Zhihui%Rong%rongzhihui53@163.com%3]</t>
+  </si>
+  <si>
+    <t>Higher Education Press</t>
   </si>
 </sst>
 </file>
@@ -1678,10 +1819,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1693,10 +1834,10 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
@@ -1707,28 +1848,28 @@
         <v>44013.0</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1745,7 +1886,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1757,10 +1898,10 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1918,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1789,10 +1930,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6">
@@ -1809,7 +1950,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1821,10 +1962,10 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7">
@@ -1841,7 +1982,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1853,10 +1994,10 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
@@ -1867,28 +2008,28 @@
         <v>44013.0</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1905,7 +2046,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1917,10 +2058,10 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10">
@@ -1931,25 +2072,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -1966,10 +2107,10 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>434</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1981,10 +2122,10 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12">
@@ -1998,10 +2139,10 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2013,10 +2154,10 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13">
@@ -2033,7 +2174,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -2045,10 +2186,10 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14">
@@ -2062,10 +2203,10 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -2077,10 +2218,10 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
